--- a/Extract Fields.xlsx
+++ b/Extract Fields.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <x:si>
     <x:t>1.1 Extract_Fields (Sequence)</x:t>
   </x:si>
@@ -25,7 +25,7 @@
     <x:t>Activities</x:t>
   </x:si>
   <x:si>
-    <x:t>1.3 For Each (ForEach&lt;String&gt;)</x:t>
+    <x:t>1.2 For Each (ForEach&lt;String&gt;)</x:t>
   </x:si>
   <x:si>
     <x:t>Values = Directory.GetFiles("Invoices","*.pdf")</x:t>
@@ -37,22 +37,22 @@
     <x:t>Body</x:t>
   </x:si>
   <x:si>
-    <x:t>1.4 Body (Sequence)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.81 Start Process - Adobe Acrobat (StartProcess)</x:t>
+    <x:t>1.3 Body (Sequence)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.74 Start Process - Adobe Acrobat (StartProcess)</x:t>
   </x:si>
   <x:si>
     <x:t>FileName = invoice</x:t>
   </x:si>
   <x:si>
-    <x:t>1.5 Attach Window - Invoice.pdf (WindowScope)</x:t>
+    <x:t>1.4 Attach Window - Invoice.pdf (WindowScope)</x:t>
   </x:si>
   <x:si>
     <x:t>Selector = &lt;wnd app='acrobat.exe' cls='AcrobatSDIWindow' title='*.pdf - Adobe Acrobat Standard DC' /&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>1.6 Do (Sequence)</x:t>
+    <x:t>1.5 Do (Sequence)</x:t>
   </x:si>
   <x:si>
     <x:t>Variables</x:t>
@@ -79,160 +79,157 @@
     <x:t>dataTable(DataTable)</x:t>
   </x:si>
   <x:si>
-    <x:t>counter(String)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pageCount(Int32)</x:t>
+    <x:t>counter(Int32)</x:t>
   </x:si>
   <x:si>
     <x:t>textSubTotal(IEnumerable&lt;Match&gt;)</x:t>
   </x:si>
   <x:si>
-    <x:t>1.79 Maximize Window - Adobe Acrobat (MaximizeWindow)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.74 Get PDF Page Count (GetPDFPageCount)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PageCount = pageCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.67 If (If)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Condition = pageCount=2</x:t>
+    <x:t>1.72 Maximize Window - Adobe Acrobat (MaximizeWindow)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.63 Get Text - Customer Name (GetValue)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value = textName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selector = &lt;wnd app='acrobat.exe' cls='AcrobatSDIWindow' title='*.pdf - Adobe Acrobat Standard DC' /&gt;&lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl name='*, ' role='text' /&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.58 Assign - Remove , (Assign)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To = textName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value = textName.Replace(","," ")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.53 Assign - Trim (Assign)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value = textName.Trim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.48 Get Text - Invoice # (GetValue)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value = textInvoice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selector = &lt;wnd app='acrobat.exe' cls='AcrobatSDIWindow' title='*.pdf - Adobe Acrobat Standard DC' /&gt;&lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl idx='2' role='row' /&gt;&lt;ctrl name='Invoice # * ' role='text' /&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.43 Get Text - Invoice Date (GetValue)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value = textDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selector = &lt;wnd app='acrobat.exe' cls='AcrobatSDIWindow' title='*.pdf - Adobe Acrobat Standard DC' /&gt;&lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl idx='2' role='row' /&gt;&lt;ctrl name='Invoice Date: * ' role='text' /&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.9 Do While (DoWhile)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Condition = counter &lt;4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.10 Sequence (Sequence)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.33 Extract Structured Data - Order Information (ExtractData)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExtractMetadata = &lt;extract-table get_columns_name='1' get_empty_columns='1' columns_name_source='Longest' /&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxNumberOfResults = 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DataTable = dataTable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SimulateClick = True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selector = &lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl idx='{{counter}}' role='table' /&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ContinueOnError = True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.11 If (If)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Condition = counter=2</x:t>
   </x:si>
   <x:si>
     <x:t>Then</x:t>
   </x:si>
   <x:si>
-    <x:t>1.70 Assign (Assign)</x:t>
+    <x:t>1.23 Excel Application Scope (ExcelApplicationScope)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WorkbookPath = "Excel Invoices\"+textName+"_"+textInvoice+".xlsx"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Visible = True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CreateNewFile = True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AutoSave = True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReadOnly = False</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MacroSetting = EnableAll</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.24 Do (Sequence)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.25 Write Range (ExcelWriteRange)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StartingCell = A3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AddHeaders = True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SheetName = Sheet1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Else</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.14 Excel Application Scope (ExcelApplicationScope)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.15 Do (Sequence)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.16 Append Range (ExcelAppendRange)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.11 Assign (Assign)</x:t>
   </x:si>
   <x:si>
     <x:t>To = counter</x:t>
   </x:si>
   <x:si>
-    <x:t>Value = 2, 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.62 Get Text - Customer Name (GetValue)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value = textName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Selector = &lt;wnd app='acrobat.exe' cls='AcrobatSDIWindow' title='*.pdf - Adobe Acrobat Standard DC' /&gt;&lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl name='*, ' role='text' /&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.57 Get Text - Invoice # (GetValue)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value = textInvoice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Selector = &lt;wnd app='acrobat.exe' cls='AcrobatSDIWindow' title='*.pdf - Adobe Acrobat Standard DC' /&gt;&lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl idx='2' role='row' /&gt;&lt;ctrl name='Invoice # * ' role='text' /&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.52 Get Text - Invoice Date (GetValue)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value = textDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Selector = &lt;wnd app='acrobat.exe' cls='AcrobatSDIWindow' title='*.pdf - Adobe Acrobat Standard DC' /&gt;&lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl idx='2' role='row' /&gt;&lt;ctrl name='Invoice Date: * ' role='text' /&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.6 Extract Structured Data 'table' (ExtractData)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExtractMetadata = &lt;extract-table get_columns_name='1' get_empty_columns='1' columns_name_source='Longest' /&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MaxNumberOfResults = 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DataTable = dataTable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SimulateClick = True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Selector = &lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl idx='2' role='table' /&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ContinueOnError = True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.35 Anchor Base - Sub Total (AnchorBase)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AnchorPosition = Left</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.36 Get Text - Sub Total # (GetValue)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value = textSubTotal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Selector = &lt;ctrl role='text' /&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.26 Anchor Base - GST (AnchorBase)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.27 Get Text - GST # (GetValue)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value = textGST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.17 Anchor Base - Total (AnchorBase)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.18 Get Text - Total # (GetValue)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value = textTotal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.7 Excel Application Scope (ExcelApplicationScope)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WorkbookPath = textName+"_"+textInvoice+".xlsx"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Visible = True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CreateNewFile = True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AutoSave = True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReadOnly = False</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MacroSetting = EnableAll</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.8 Do (Sequence)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.9 Write Range (ExcelWriteRange)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AddHeaders = True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SheetName = Sheet1</x:t>
+    <x:t>Value = counter+1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.8 Close Application - Adobe Acrobat (CloseApplication)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -583,579 +580,599 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P114"/>
+  <x:dimension ref="A1:V118"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:16">
+    <x:row r="1" spans="1:22">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:16">
+    <x:row r="2" spans="1:22">
       <x:c r="B2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:16">
+    <x:row r="3" spans="1:22">
       <x:c r="B3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:16">
+    <x:row r="4" spans="1:22">
       <x:c r="C4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:16">
+    <x:row r="5" spans="1:22">
       <x:c r="D5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:16">
+    <x:row r="6" spans="1:22">
       <x:c r="D6" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:16">
+    <x:row r="7" spans="1:22">
       <x:c r="D7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:16">
+    <x:row r="8" spans="1:22">
       <x:c r="D8" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:16">
+    <x:row r="9" spans="1:22">
       <x:c r="E9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:16">
+    <x:row r="10" spans="1:22">
       <x:c r="F10" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:16">
+    <x:row r="11" spans="1:22">
       <x:c r="F11" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:16">
+    <x:row r="12" spans="1:22">
       <x:c r="G12" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:16">
+    <x:row r="13" spans="1:22">
       <x:c r="H13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:16">
+    <x:row r="14" spans="1:22">
       <x:c r="H14" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:16">
+    <x:row r="15" spans="1:22">
       <x:c r="G15" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:16">
+    <x:row r="16" spans="1:22">
       <x:c r="H16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:16">
+    <x:row r="17" spans="1:22">
       <x:c r="H17" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:16">
+    <x:row r="18" spans="1:22">
       <x:c r="H18" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:16">
+    <x:row r="19" spans="1:22">
       <x:c r="I19" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:16">
+    <x:row r="20" spans="1:22">
       <x:c r="J20" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:16">
+    <x:row r="21" spans="1:22">
       <x:c r="J21" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:16">
+    <x:row r="22" spans="1:22">
       <x:c r="K22" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:16">
+    <x:row r="23" spans="1:22">
       <x:c r="K23" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:16">
+    <x:row r="24" spans="1:22">
       <x:c r="K24" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:16">
+    <x:row r="25" spans="1:22">
       <x:c r="K25" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:16">
+    <x:row r="26" spans="1:22">
       <x:c r="K26" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:16">
+    <x:row r="27" spans="1:22">
       <x:c r="K27" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:16">
+    <x:row r="28" spans="1:22">
       <x:c r="K28" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:16">
+    <x:row r="29" spans="1:22">
       <x:c r="K29" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:16">
+    <x:row r="30" spans="1:22">
       <x:c r="K30" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:16">
-      <x:c r="K31" s="0" t="s">
+    <x:row r="31" spans="1:22">
+      <x:c r="J31" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:22">
+      <x:c r="K32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:16">
-      <x:c r="J32" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:16">
-      <x:c r="K33" s="0" t="s">
+    <x:row r="33" spans="1:22">
+      <x:c r="L33" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:22">
+      <x:c r="K34" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:16">
-      <x:c r="L34" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:16">
-      <x:c r="K35" s="0" t="s">
+    <x:row r="35" spans="1:22">
+      <x:c r="L35" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:16">
+    <x:row r="36" spans="1:22">
       <x:c r="L36" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:16">
-      <x:c r="L37" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:16">
+    <x:row r="37" spans="1:22">
+      <x:c r="M37" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:22">
       <x:c r="L38" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:16">
+    <x:row r="39" spans="1:22">
       <x:c r="K39" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:16">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:22">
       <x:c r="L40" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:16">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:22">
       <x:c r="L41" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:16">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:22">
       <x:c r="L42" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:22">
+      <x:c r="K43" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:22">
+      <x:c r="L44" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:16">
-      <x:c r="M43" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:16">
-      <x:c r="N44" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:16">
-      <x:c r="N45" s="0" t="s">
+    <x:row r="45" spans="1:22">
+      <x:c r="L45" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:16">
-      <x:c r="N46" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:16">
+    <x:row r="46" spans="1:22">
+      <x:c r="L46" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:22">
       <x:c r="K47" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:16">
+    <x:row r="48" spans="1:22">
       <x:c r="L48" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:16">
+    <x:row r="49" spans="1:22">
       <x:c r="L49" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:22">
+      <x:c r="M50" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:16">
-      <x:c r="M50" s="0" t="s">
+    <x:row r="51" spans="1:22">
+      <x:c r="L51" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:22">
+      <x:c r="K52" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:16">
-      <x:c r="L51" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:16">
-      <x:c r="K52" s="0" t="s">
+    <x:row r="53" spans="1:22">
+      <x:c r="L53" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:16">
-      <x:c r="L53" s="0" t="s">
+    <x:row r="54" spans="1:22">
+      <x:c r="L54" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:22">
+      <x:c r="M55" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:16">
-      <x:c r="L54" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:16">
-      <x:c r="M55" s="0" t="s">
+    <x:row r="56" spans="1:22">
+      <x:c r="L56" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:22">
+      <x:c r="K57" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:16">
-      <x:c r="L56" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:16">
-      <x:c r="K57" s="0" t="s">
+    <x:row r="58" spans="1:22">
+      <x:c r="L58" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:16">
-      <x:c r="L58" s="0" t="s">
+    <x:row r="59" spans="1:22">
+      <x:c r="L59" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:22">
+      <x:c r="L60" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:22">
+      <x:c r="M61" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:16">
-      <x:c r="L59" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:16">
-      <x:c r="M60" s="0" t="s">
+    <x:row r="62" spans="1:22">
+      <x:c r="N62" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:22">
+      <x:c r="N63" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:22">
+      <x:c r="O64" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:16">
-      <x:c r="L61" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:16">
-      <x:c r="K62" s="0" t="s">
+    <x:row r="65" spans="1:22">
+      <x:c r="P65" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:16">
-      <x:c r="L63" s="0" t="s">
+    <x:row r="66" spans="1:22">
+      <x:c r="P66" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:16">
-      <x:c r="L64" s="0" t="s">
+    <x:row r="67" spans="1:22">
+      <x:c r="P67" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:16">
-      <x:c r="L65" s="0" t="s">
+    <x:row r="68" spans="1:22">
+      <x:c r="P68" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:16">
-      <x:c r="L66" s="0" t="s">
+    <x:row r="69" spans="1:22">
+      <x:c r="P69" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:22">
+      <x:c r="Q70" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:16">
-      <x:c r="L67" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:16">
-      <x:c r="M68" s="0" t="s">
+    <x:row r="71" spans="1:22">
+      <x:c r="P71" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:16">
-      <x:c r="L69" s="0" t="s">
+    <x:row r="72" spans="1:22">
+      <x:c r="P72" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:22">
+      <x:c r="O73" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:16">
-      <x:c r="L70" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:16">
-      <x:c r="K71" s="0" t="s">
+    <x:row r="74" spans="1:22">
+      <x:c r="P74" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:16">
-      <x:c r="L72" s="0" t="s">
+    <x:row r="75" spans="1:22">
+      <x:c r="P75" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:22">
+      <x:c r="P76" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:16">
-      <x:c r="L73" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:16">
-      <x:c r="L74" s="0" t="s">
+    <x:row r="77" spans="1:22">
+      <x:c r="Q77" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:16">
-      <x:c r="M75" s="0" t="s">
+    <x:row r="78" spans="1:22">
+      <x:c r="R78" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:16">
-      <x:c r="N76" s="0" t="s">
+    <x:row r="79" spans="1:22">
+      <x:c r="R79" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:16">
-      <x:c r="N77" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:16">
-      <x:c r="O78" s="0" t="s">
+    <x:row r="80" spans="1:22">
+      <x:c r="R80" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:16">
-      <x:c r="N79" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:16">
-      <x:c r="K80" s="0" t="s">
+    <x:row r="81" spans="1:22">
+      <x:c r="R81" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:16">
-      <x:c r="L81" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:16">
-      <x:c r="L82" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:16">
-      <x:c r="L83" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:16">
-      <x:c r="M84" s="0" t="s">
+    <x:row r="82" spans="1:22">
+      <x:c r="R82" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:16">
-      <x:c r="N85" s="0" t="s">
+    <x:row r="83" spans="1:22">
+      <x:c r="R83" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:16">
-      <x:c r="N86" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:16">
-      <x:c r="O87" s="0" t="s">
+    <x:row r="84" spans="1:22">
+      <x:c r="R84" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:22">
+      <x:c r="R85" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:22">
+      <x:c r="S86" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:22">
+      <x:c r="T87" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:22">
+      <x:c r="T88" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:22">
+      <x:c r="U89" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:22">
+      <x:c r="V90" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:22">
+      <x:c r="V91" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:22">
+      <x:c r="V92" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:22">
+      <x:c r="V93" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:22">
+      <x:c r="V94" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:22">
+      <x:c r="P95" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:22">
+      <x:c r="Q96" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:22">
+      <x:c r="R97" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:22">
+      <x:c r="R98" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:22">
+      <x:c r="R99" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:16">
-      <x:c r="N88" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:16">
-      <x:c r="K89" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:16">
-      <x:c r="L90" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:16">
-      <x:c r="L91" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:16">
-      <x:c r="L92" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:16">
-      <x:c r="M93" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:16">
-      <x:c r="N94" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:16">
-      <x:c r="N95" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:16">
-      <x:c r="O96" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:16">
-      <x:c r="N97" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:16">
-      <x:c r="K98" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:16">
-      <x:c r="L99" s="0" t="s">
+    <x:row r="100" spans="1:22">
+      <x:c r="R100" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:22">
+      <x:c r="R101" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:22">
+      <x:c r="R102" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:22">
+      <x:c r="R103" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:22">
+      <x:c r="R104" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:22">
+      <x:c r="S105" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:22">
+      <x:c r="T106" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:22">
+      <x:c r="T107" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:22">
+      <x:c r="U108" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:22">
+      <x:c r="V109" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:22">
+      <x:c r="V110" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:16">
-      <x:c r="L100" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:16">
-      <x:c r="L101" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:16">
-      <x:c r="L102" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:16">
-      <x:c r="L103" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104" spans="1:16">
-      <x:c r="L104" s="0" t="s">
+    <x:row r="111" spans="1:22">
+      <x:c r="V111" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:22">
+      <x:c r="O112" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:16">
-      <x:c r="L105" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="106" spans="1:16">
-      <x:c r="L106" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:16">
-      <x:c r="M107" s="0" t="s">
+    <x:row r="113" spans="1:22">
+      <x:c r="P113" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:16">
-      <x:c r="N108" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="109" spans="1:16">
-      <x:c r="N109" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110" spans="1:16">
-      <x:c r="O110" s="0" t="s">
+    <x:row r="114" spans="1:22">
+      <x:c r="P114" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:16">
-      <x:c r="P111" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:16">
-      <x:c r="P112" s="0" t="s">
+    <x:row r="115" spans="1:22">
+      <x:c r="P115" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:22">
+      <x:c r="K116" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:16">
-      <x:c r="P113" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="114" spans="1:16">
-      <x:c r="P114" s="0" t="s">
+    <x:row r="117" spans="1:22">
+      <x:c r="L117" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:22">
+      <x:c r="L118" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>

--- a/Extract Fields.xlsx
+++ b/Extract Fields.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>1.1 Extract_Fields (Sequence)</x:t>
   </x:si>
@@ -40,7 +40,7 @@
     <x:t>1.3 Body (Sequence)</x:t>
   </x:si>
   <x:si>
-    <x:t>1.74 Start Process - Adobe Acrobat (StartProcess)</x:t>
+    <x:t>1.75 Start Process - Adobe Acrobat (StartProcess)</x:t>
   </x:si>
   <x:si>
     <x:t>FileName = invoice</x:t>
@@ -67,28 +67,16 @@
     <x:t>textDate(GenericValue)</x:t>
   </x:si>
   <x:si>
-    <x:t>readInvoice(String)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>textTotal(GenericValue)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>textGST(GenericValue)</x:t>
-  </x:si>
-  <x:si>
     <x:t>dataTable(DataTable)</x:t>
   </x:si>
   <x:si>
     <x:t>counter(Int32)</x:t>
   </x:si>
   <x:si>
-    <x:t>textSubTotal(IEnumerable&lt;Match&gt;)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.72 Maximize Window - Adobe Acrobat (MaximizeWindow)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.63 Get Text - Customer Name (GetValue)</x:t>
+    <x:t>1.73 Maximize Window - Adobe Acrobat (MaximizeWindow)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.68 Get Text - Customer Name (GetValue)</x:t>
   </x:si>
   <x:si>
     <x:t>Value = textName</x:t>
@@ -100,7 +88,7 @@
     <x:t>Selector = &lt;wnd app='acrobat.exe' cls='AcrobatSDIWindow' title='*.pdf - Adobe Acrobat Standard DC' /&gt;&lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl name='*, ' role='text' /&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>1.58 Assign - Remove , (Assign)</x:t>
+    <x:t>1.63 Assign - Remove , (Assign)</x:t>
   </x:si>
   <x:si>
     <x:t>To = textName</x:t>
@@ -109,13 +97,13 @@
     <x:t>Value = textName.Replace(","," ")</x:t>
   </x:si>
   <x:si>
-    <x:t>1.53 Assign - Trim (Assign)</x:t>
+    <x:t>1.58 Assign - Trim (Assign)</x:t>
   </x:si>
   <x:si>
     <x:t>Value = textName.Trim</x:t>
   </x:si>
   <x:si>
-    <x:t>1.48 Get Text - Invoice # (GetValue)</x:t>
+    <x:t>1.53 Get Text - Invoice # (GetValue)</x:t>
   </x:si>
   <x:si>
     <x:t>Value = textInvoice</x:t>
@@ -124,7 +112,7 @@
     <x:t>Selector = &lt;wnd app='acrobat.exe' cls='AcrobatSDIWindow' title='*.pdf - Adobe Acrobat Standard DC' /&gt;&lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl idx='2' role='row' /&gt;&lt;ctrl name='Invoice # * ' role='text' /&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>1.43 Get Text - Invoice Date (GetValue)</x:t>
+    <x:t>1.48 Get Text - Invoice Date (GetValue)</x:t>
   </x:si>
   <x:si>
     <x:t>Value = textDate</x:t>
@@ -133,16 +121,16 @@
     <x:t>Selector = &lt;wnd app='acrobat.exe' cls='AcrobatSDIWindow' title='*.pdf - Adobe Acrobat Standard DC' /&gt;&lt;wnd aaname='Document Pane' cls='AVL_AVView' title='AVScrolledPageView' /&gt;&lt;wnd cls='AVL_AVView' title='AVPageView' /&gt;&lt;ctrl idx='2' role='row' /&gt;&lt;ctrl name='Invoice Date: * ' role='text' /&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>1.9 Do While (DoWhile)</x:t>
+    <x:t>1.9 Do While - Grab Table (DoWhile)</x:t>
   </x:si>
   <x:si>
     <x:t>Condition = counter &lt;4</x:t>
   </x:si>
   <x:si>
-    <x:t>1.10 Sequence (Sequence)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.33 Extract Structured Data - Order Information (ExtractData)</x:t>
+    <x:t>1.10 Sequence - Grab Table (Sequence)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.38 Extract Structured Data - Order Information (ExtractData)</x:t>
   </x:si>
   <x:si>
     <x:t>ExtractMetadata = &lt;extract-table get_columns_name='1' get_empty_columns='1' columns_name_source='Longest' /&gt;</x:t>
@@ -163,7 +151,7 @@
     <x:t>ContinueOnError = True</x:t>
   </x:si>
   <x:si>
-    <x:t>1.11 If (If)</x:t>
+    <x:t>1.16 If - counter = 2 (If)</x:t>
   </x:si>
   <x:si>
     <x:t>Condition = counter=2</x:t>
@@ -172,7 +160,7 @@
     <x:t>Then</x:t>
   </x:si>
   <x:si>
-    <x:t>1.23 Excel Application Scope (ExcelApplicationScope)</x:t>
+    <x:t>1.28 Excel Application Scope - Create or Open Workbook (ExcelApplicationScope)</x:t>
   </x:si>
   <x:si>
     <x:t>WorkbookPath = "Excel Invoices\"+textName+"_"+textInvoice+".xlsx"</x:t>
@@ -193,10 +181,10 @@
     <x:t>MacroSetting = EnableAll</x:t>
   </x:si>
   <x:si>
-    <x:t>1.24 Do (Sequence)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.25 Write Range (ExcelWriteRange)</x:t>
+    <x:t>1.29 Do (Sequence)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.30 Write Range - Write Data Table (ExcelWriteRange)</x:t>
   </x:si>
   <x:si>
     <x:t>StartingCell = A3</x:t>
@@ -211,16 +199,16 @@
     <x:t>Else</x:t>
   </x:si>
   <x:si>
-    <x:t>1.14 Excel Application Scope (ExcelApplicationScope)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.15 Do (Sequence)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.16 Append Range (ExcelAppendRange)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.11 Assign (Assign)</x:t>
+    <x:t>1.19 Excel Application Scope - Open Workbook (ExcelApplicationScope)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.20 Do (Sequence)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.21 Append Range - Write Next Page (ExcelAppendRange)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.11 Assign - counter+1 (Assign)</x:t>
   </x:si>
   <x:si>
     <x:t>To = counter</x:t>
@@ -580,7 +568,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V118"/>
+  <x:dimension ref="A1:V114"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -717,58 +705,58 @@
       </x:c>
     </x:row>
     <x:row r="27" spans="1:22">
-      <x:c r="K27" s="0" t="s">
-        <x:v>19</x:v>
+      <x:c r="J27" s="0" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:22">
       <x:c r="K28" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:22">
-      <x:c r="K29" s="0" t="s">
-        <x:v>21</x:v>
+      <x:c r="L29" s="0" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22">
       <x:c r="K30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:22">
+      <x:c r="L31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:22">
+      <x:c r="L32" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:22">
-      <x:c r="J31" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:22">
-      <x:c r="K32" s="0" t="s">
+    <x:row r="33" spans="1:22">
+      <x:c r="M33" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:22">
-      <x:c r="L33" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
     <x:row r="34" spans="1:22">
-      <x:c r="K34" s="0" t="s">
+      <x:c r="L34" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:22">
+      <x:c r="K35" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:22">
-      <x:c r="L35" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:22">
       <x:c r="L36" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:22">
+      <x:c r="L37" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:22">
-      <x:c r="M37" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:22">
@@ -778,17 +766,17 @@
     </x:row>
     <x:row r="39" spans="1:22">
       <x:c r="K39" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:22">
       <x:c r="L40" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:22">
       <x:c r="L41" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:22">
@@ -798,176 +786,176 @@
     </x:row>
     <x:row r="43" spans="1:22">
       <x:c r="K43" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:22">
       <x:c r="L44" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:22">
       <x:c r="L45" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:22">
+      <x:c r="M46" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:22">
+      <x:c r="L47" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:22">
+      <x:c r="K48" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:22">
-      <x:c r="L46" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:22">
-      <x:c r="K47" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:22">
-      <x:c r="L48" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
       <x:c r="L49" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:22">
-      <x:c r="M50" s="0" t="s">
+      <x:c r="L50" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:22">
+      <x:c r="M51" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:22">
+      <x:c r="L52" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:22">
+      <x:c r="K53" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:22">
-      <x:c r="L51" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:22">
-      <x:c r="K52" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:22">
-      <x:c r="L53" s="0" t="s">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:22">
       <x:c r="L54" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:22">
-      <x:c r="M55" s="0" t="s">
-        <x:v>38</x:v>
+      <x:c r="L55" s="0" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
       <x:c r="L56" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
-      <x:c r="K57" s="0" t="s">
+      <x:c r="M57" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:22">
+      <x:c r="N58" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:22">
+      <x:c r="N59" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:22">
+      <x:c r="O60" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:22">
+      <x:c r="P61" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:22">
-      <x:c r="L58" s="0" t="s">
+    <x:row r="62" spans="1:22">
+      <x:c r="P62" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:22">
-      <x:c r="L59" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:22">
-      <x:c r="L60" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:22">
-      <x:c r="M61" s="0" t="s">
+    <x:row r="63" spans="1:22">
+      <x:c r="P63" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:22">
-      <x:c r="N62" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:22">
-      <x:c r="N63" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
     <x:row r="64" spans="1:22">
-      <x:c r="O64" s="0" t="s">
+      <x:c r="P64" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:22">
       <x:c r="P65" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:22">
+      <x:c r="Q66" s="0" t="s">
         <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:22">
-      <x:c r="P66" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:22">
       <x:c r="P67" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:22">
       <x:c r="P68" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:22">
+      <x:c r="O69" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:22">
+      <x:c r="P70" s="0" t="s">
         <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:22">
-      <x:c r="P69" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:22">
-      <x:c r="Q70" s="0" t="s">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="P71" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="P72" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
-      <x:c r="O73" s="0" t="s">
+      <x:c r="Q73" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:22">
+      <x:c r="R74" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:22">
-      <x:c r="P74" s="0" t="s">
+    <x:row r="75" spans="1:22">
+      <x:c r="R75" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:22">
-      <x:c r="P75" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
     <x:row r="76" spans="1:22">
-      <x:c r="P76" s="0" t="s">
+      <x:c r="R76" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:22">
-      <x:c r="Q77" s="0" t="s">
+      <x:c r="R77" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
@@ -983,87 +971,87 @@
     </x:row>
     <x:row r="80" spans="1:22">
       <x:c r="R80" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="R81" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:22">
+      <x:c r="S82" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:22">
+      <x:c r="T83" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:22">
+      <x:c r="T84" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:22">
+      <x:c r="U85" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:22">
-      <x:c r="R82" s="0" t="s">
+    <x:row r="86" spans="1:22">
+      <x:c r="V86" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:22">
-      <x:c r="R83" s="0" t="s">
+    <x:row r="87" spans="1:22">
+      <x:c r="V87" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:22">
+      <x:c r="V88" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:22">
-      <x:c r="R84" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:22">
-      <x:c r="R85" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:22">
-      <x:c r="S86" s="0" t="s">
+    <x:row r="89" spans="1:22">
+      <x:c r="V89" s="0" t="s">
         <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:22">
-      <x:c r="T87" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:22">
-      <x:c r="T88" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:22">
-      <x:c r="U89" s="0" t="s">
-        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="V90" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:22">
+      <x:c r="P91" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:22">
+      <x:c r="Q92" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:22">
-      <x:c r="V91" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:22">
-      <x:c r="V92" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
     <x:row r="93" spans="1:22">
-      <x:c r="V93" s="0" t="s">
-        <x:v>63</x:v>
+      <x:c r="R93" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:22">
-      <x:c r="V94" s="0" t="s">
-        <x:v>1</x:v>
+      <x:c r="R94" s="0" t="s">
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
-      <x:c r="P95" s="0" t="s">
-        <x:v>64</x:v>
+      <x:c r="R95" s="0" t="s">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
-      <x:c r="Q96" s="0" t="s">
-        <x:v>65</x:v>
+      <x:c r="R96" s="0" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:22">
@@ -1078,101 +1066,81 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="R99" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="R100" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
-      <x:c r="R101" s="0" t="s">
-        <x:v>57</x:v>
+      <x:c r="S101" s="0" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:22">
-      <x:c r="R102" s="0" t="s">
-        <x:v>58</x:v>
+      <x:c r="T102" s="0" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
-      <x:c r="R103" s="0" t="s">
-        <x:v>1</x:v>
+      <x:c r="T103" s="0" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:22">
-      <x:c r="R104" s="0" t="s">
-        <x:v>6</x:v>
+      <x:c r="U104" s="0" t="s">
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:22">
-      <x:c r="S105" s="0" t="s">
+      <x:c r="V105" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:22">
+      <x:c r="V106" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:22">
+      <x:c r="V107" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:22">
+      <x:c r="O108" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:22">
+      <x:c r="P109" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:22">
+      <x:c r="P110" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:22">
-      <x:c r="T106" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:22">
-      <x:c r="T107" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="108" spans="1:22">
-      <x:c r="U108" s="0" t="s">
+    <x:row r="111" spans="1:22">
+      <x:c r="P111" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:22">
+      <x:c r="K112" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:22">
-      <x:c r="V109" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110" spans="1:22">
-      <x:c r="V110" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:22">
-      <x:c r="V111" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:22">
-      <x:c r="O112" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
     <x:row r="113" spans="1:22">
-      <x:c r="P113" s="0" t="s">
-        <x:v>69</x:v>
+      <x:c r="L113" s="0" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:22">
-      <x:c r="P114" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="115" spans="1:22">
-      <x:c r="P115" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="116" spans="1:22">
-      <x:c r="K116" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:22">
-      <x:c r="L117" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:22">
-      <x:c r="L118" s="0" t="s">
+      <x:c r="L114" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>

--- a/Extract Fields.xlsx
+++ b/Extract Fields.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>1.1 Extract_Fields (Sequence)</x:t>
   </x:si>
@@ -130,6 +130,18 @@
     <x:t>1.10 Sequence - Grab Table (Sequence)</x:t>
   </x:si>
   <x:si>
+    <x:t>1.16 If - counter = 2 (If)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Condition = counter=2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Then</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.37 Sequence (Sequence)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1.38 Extract Structured Data - Order Information (ExtractData)</x:t>
   </x:si>
   <x:si>
@@ -151,61 +163,31 @@
     <x:t>ContinueOnError = True</x:t>
   </x:si>
   <x:si>
-    <x:t>1.16 If - counter = 2 (If)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Condition = counter=2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Then</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.28 Excel Application Scope - Create or Open Workbook (ExcelApplicationScope)</x:t>
+    <x:t>1.48 Write Range - Write Data Table (WriteRange)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StartingCell = A3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AddHeaders = True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SheetName = Sheet1</x:t>
   </x:si>
   <x:si>
     <x:t>WorkbookPath = "Excel Invoices\"+textName+"_"+textInvoice+".xlsx"</x:t>
   </x:si>
   <x:si>
-    <x:t>Visible = True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CreateNewFile = True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AutoSave = True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReadOnly = False</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MacroSetting = EnableAll</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.29 Do (Sequence)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.30 Write Range - Write Data Table (ExcelWriteRange)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StartingCell = A3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AddHeaders = True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SheetName = Sheet1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Else</x:t>
   </x:si>
   <x:si>
-    <x:t>1.19 Excel Application Scope - Open Workbook (ExcelApplicationScope)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.20 Do (Sequence)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.21 Append Range - Write Next Page (ExcelAppendRange)</x:t>
+    <x:t>1.19 Sequence (Sequence)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.21 Extract Structured Data - Order Information (ExtractData)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.29 Append Range -  Write Next Page (AppendRange)</x:t>
   </x:si>
   <x:si>
     <x:t>1.11 Assign - counter+1 (Assign)</x:t>
@@ -568,579 +550,544 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V114"/>
+  <x:dimension ref="A1:U107"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:22">
+    <x:row r="1" spans="1:21">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:22">
+    <x:row r="2" spans="1:21">
       <x:c r="B2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:22">
+    <x:row r="3" spans="1:21">
       <x:c r="B3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:22">
+    <x:row r="4" spans="1:21">
       <x:c r="C4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:22">
+    <x:row r="5" spans="1:21">
       <x:c r="D5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:22">
+    <x:row r="6" spans="1:21">
       <x:c r="D6" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:22">
+    <x:row r="7" spans="1:21">
       <x:c r="D7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:22">
+    <x:row r="8" spans="1:21">
       <x:c r="D8" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:22">
+    <x:row r="9" spans="1:21">
       <x:c r="E9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:22">
+    <x:row r="10" spans="1:21">
       <x:c r="F10" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:22">
+    <x:row r="11" spans="1:21">
       <x:c r="F11" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:22">
+    <x:row r="12" spans="1:21">
       <x:c r="G12" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:22">
+    <x:row r="13" spans="1:21">
       <x:c r="H13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:22">
+    <x:row r="14" spans="1:21">
       <x:c r="H14" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:22">
+    <x:row r="15" spans="1:21">
       <x:c r="G15" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:22">
+    <x:row r="16" spans="1:21">
       <x:c r="H16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:22">
+    <x:row r="17" spans="1:21">
       <x:c r="H17" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:22">
+    <x:row r="18" spans="1:21">
       <x:c r="H18" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:22">
+    <x:row r="19" spans="1:21">
       <x:c r="I19" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:22">
+    <x:row r="20" spans="1:21">
       <x:c r="J20" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:22">
+    <x:row r="21" spans="1:21">
       <x:c r="J21" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:22">
+    <x:row r="22" spans="1:21">
       <x:c r="K22" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:22">
+    <x:row r="23" spans="1:21">
       <x:c r="K23" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:22">
+    <x:row r="24" spans="1:21">
       <x:c r="K24" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:22">
+    <x:row r="25" spans="1:21">
       <x:c r="K25" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:22">
+    <x:row r="26" spans="1:21">
       <x:c r="K26" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:22">
+    <x:row r="27" spans="1:21">
       <x:c r="J27" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:22">
+    <x:row r="28" spans="1:21">
       <x:c r="K28" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:22">
+    <x:row r="29" spans="1:21">
       <x:c r="L29" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:22">
+    <x:row r="30" spans="1:21">
       <x:c r="K30" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:22">
+    <x:row r="31" spans="1:21">
       <x:c r="L31" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:22">
+    <x:row r="32" spans="1:21">
       <x:c r="L32" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:22">
+    <x:row r="33" spans="1:21">
       <x:c r="M33" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:22">
+    <x:row r="34" spans="1:21">
       <x:c r="L34" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:22">
+    <x:row r="35" spans="1:21">
       <x:c r="K35" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:22">
+    <x:row r="36" spans="1:21">
       <x:c r="L36" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:22">
+    <x:row r="37" spans="1:21">
       <x:c r="L37" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:22">
+    <x:row r="38" spans="1:21">
       <x:c r="L38" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:22">
+    <x:row r="39" spans="1:21">
       <x:c r="K39" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:22">
+    <x:row r="40" spans="1:21">
       <x:c r="L40" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:22">
+    <x:row r="41" spans="1:21">
       <x:c r="L41" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:22">
+    <x:row r="42" spans="1:21">
       <x:c r="L42" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:22">
+    <x:row r="43" spans="1:21">
       <x:c r="K43" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:22">
+    <x:row r="44" spans="1:21">
       <x:c r="L44" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:22">
+    <x:row r="45" spans="1:21">
       <x:c r="L45" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:22">
+    <x:row r="46" spans="1:21">
       <x:c r="M46" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:22">
+    <x:row r="47" spans="1:21">
       <x:c r="L47" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:22">
+    <x:row r="48" spans="1:21">
       <x:c r="K48" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:22">
+    <x:row r="49" spans="1:21">
       <x:c r="L49" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:22">
+    <x:row r="50" spans="1:21">
       <x:c r="L50" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:22">
+    <x:row r="51" spans="1:21">
       <x:c r="M51" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:22">
+    <x:row r="52" spans="1:21">
       <x:c r="L52" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:22">
+    <x:row r="53" spans="1:21">
       <x:c r="K53" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:22">
+    <x:row r="54" spans="1:21">
       <x:c r="L54" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:22">
+    <x:row r="55" spans="1:21">
       <x:c r="L55" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:22">
+    <x:row r="56" spans="1:21">
       <x:c r="L56" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:22">
+    <x:row r="57" spans="1:21">
       <x:c r="M57" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:22">
+    <x:row r="58" spans="1:21">
       <x:c r="N58" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:22">
+    <x:row r="59" spans="1:21">
       <x:c r="N59" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:22">
+    <x:row r="60" spans="1:21">
       <x:c r="O60" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:22">
+    <x:row r="61" spans="1:21">
       <x:c r="P61" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:22">
+    <x:row r="62" spans="1:21">
       <x:c r="P62" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:21">
+      <x:c r="P63" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:22">
-      <x:c r="P63" s="0" t="s">
+    <x:row r="64" spans="1:21">
+      <x:c r="Q64" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:22">
-      <x:c r="P64" s="0" t="s">
+    <x:row r="65" spans="1:21">
+      <x:c r="R65" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:21">
+      <x:c r="R66" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:21">
+      <x:c r="S67" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:22">
-      <x:c r="P65" s="0" t="s">
+    <x:row r="68" spans="1:21">
+      <x:c r="T68" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:21">
+      <x:c r="T69" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:21">
+      <x:c r="T70" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:21">
+      <x:c r="T71" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:21">
+      <x:c r="T72" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:22">
-      <x:c r="Q66" s="0" t="s">
+    <x:row r="73" spans="1:21">
+      <x:c r="U73" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:21">
+      <x:c r="T74" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:21">
+      <x:c r="T75" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:21">
+      <x:c r="S76" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:21">
+      <x:c r="T77" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:21">
+      <x:c r="T78" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:21">
+      <x:c r="T79" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:21">
+      <x:c r="T80" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:21">
+      <x:c r="T81" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:21">
+      <x:c r="T82" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:21">
+      <x:c r="P83" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:21">
+      <x:c r="Q84" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:21">
+      <x:c r="R85" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:21">
+      <x:c r="R86" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:21">
+      <x:c r="S87" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:21">
+      <x:c r="T88" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:22">
-      <x:c r="P67" s="0" t="s">
+    <x:row r="89" spans="1:21">
+      <x:c r="T89" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:22">
-      <x:c r="P68" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:22">
-      <x:c r="O69" s="0" t="s">
+    <x:row r="90" spans="1:21">
+      <x:c r="T90" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:22">
-      <x:c r="P70" s="0" t="s">
+    <x:row r="91" spans="1:21">
+      <x:c r="T91" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:22">
-      <x:c r="P71" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:22">
-      <x:c r="P72" s="0" t="s">
+    <x:row r="92" spans="1:21">
+      <x:c r="T92" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:21">
+      <x:c r="U93" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:22">
-      <x:c r="Q73" s="0" t="s">
+    <x:row r="94" spans="1:21">
+      <x:c r="T94" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:22">
-      <x:c r="R74" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:22">
-      <x:c r="R75" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:22">
-      <x:c r="R76" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:22">
-      <x:c r="R77" s="0" t="s">
+    <x:row r="95" spans="1:21">
+      <x:c r="T95" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:21">
+      <x:c r="S96" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:21">
+      <x:c r="T97" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:21">
+      <x:c r="T98" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:21">
+      <x:c r="T99" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:22">
-      <x:c r="R78" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:22">
-      <x:c r="R79" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:22">
-      <x:c r="R80" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:22">
-      <x:c r="R81" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:22">
-      <x:c r="S82" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:22">
-      <x:c r="T83" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:22">
-      <x:c r="T84" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:22">
-      <x:c r="U85" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:22">
-      <x:c r="V86" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:22">
-      <x:c r="V87" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:22">
-      <x:c r="V88" s="0" t="s">
+    <x:row r="100" spans="1:21">
+      <x:c r="T100" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:21">
+      <x:c r="O101" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:22">
-      <x:c r="V89" s="0" t="s">
+    <x:row r="102" spans="1:21">
+      <x:c r="P102" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:22">
-      <x:c r="V90" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:22">
-      <x:c r="P91" s="0" t="s">
+    <x:row r="103" spans="1:21">
+      <x:c r="P103" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:22">
-      <x:c r="Q92" s="0" t="s">
+    <x:row r="104" spans="1:21">
+      <x:c r="P104" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:21">
+      <x:c r="K105" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:22">
-      <x:c r="R93" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:22">
-      <x:c r="R94" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:22">
-      <x:c r="R95" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:22">
-      <x:c r="R96" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:22">
-      <x:c r="R97" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:22">
-      <x:c r="R98" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:22">
-      <x:c r="R99" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:22">
-      <x:c r="R100" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:22">
-      <x:c r="S101" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:22">
-      <x:c r="T102" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:22">
-      <x:c r="T103" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104" spans="1:22">
-      <x:c r="U104" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="105" spans="1:22">
-      <x:c r="V105" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="106" spans="1:22">
-      <x:c r="V106" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:22">
-      <x:c r="V107" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="108" spans="1:22">
-      <x:c r="O108" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="109" spans="1:22">
-      <x:c r="P109" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110" spans="1:22">
-      <x:c r="P110" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:22">
-      <x:c r="P111" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:22">
-      <x:c r="K112" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:22">
-      <x:c r="L113" s="0" t="s">
+    <x:row r="106" spans="1:21">
+      <x:c r="L106" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:22">
-      <x:c r="L114" s="0" t="s">
+    <x:row r="107" spans="1:21">
+      <x:c r="L107" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
